--- a/biology/Botanique/Tillandsia_pohliana/Tillandsia_pohliana.xlsx
+++ b/biology/Botanique/Tillandsia_pohliana/Tillandsia_pohliana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia pohliana Mez est une espèce de plantes à fleurs de la famille des Bromeliaceae. C'est une épiphyte.
 L'épithète pohliana est une dédicace à Pohl, collecteur de la plante, mais le protologue ne précise pas de quel Pohl il s'agit, probablement Johann Baptist Emanuel Pohl (1782-1834).
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia pohliana Mez in Mart., Fl. Bras. 3(3): 598, tab. 111 (1894)
-Diagnose originale[1] :
+Diagnose originale :
 « TILLANDSIA POHLIANA Mez n. sp. foliis dense rosulatis utriculum haud efformantibus, quaquaversis, complicatis in apicem filiformem angustatis, utrinque lepidotis subsericantibus; inflorescentia scapo brevi stipitata, pauci- vel subpauciflora, simplicissima laxiuscule quaquaverse spicata, foliis breviore; bracteis amplis flores superantibus, late acutis, dorso molliter lepidotis; sepalis liberis, dorso molliter lepidotis; petalis lamina obovata praeditis; staminibus quam petala multo brevioribus, antheris obtusis; stylo antheras paullo superante. »
-Type : Mez[1] cite plusieurs spécimens différents (syntypes). Vu le nom de la plante, c'est le spécimen collecté par Pohl (n° 3658 "ad San Miguel") qui paraît être le type, mais il n'y a pas désignation explicite d'un holotype. Hormis la lectotypification, l'illustration du protologue (tab. 111) pourrait être considérée comme l'holotype de Tillandsia pohliana Mez.
+Type : Mez cite plusieurs spécimens différents (syntypes). Vu le nom de la plante, c'est le spécimen collecté par Pohl (n° 3658 "ad San Miguel") qui paraît être le type, mais il n'y a pas désignation explicite d'un holotype. Hormis la lectotypification, l'illustration du protologue (tab. 111) pourrait être considérée comme l'holotype de Tillandsia pohliana Mez.
 leg. J. Pohl, n° 3658, s.t. ; San Miguel ; Lectotypus W (Naturhistorisches Museum Wien) (W 0016893)</t>
         </is>
       </c>
@@ -548,14 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-(aucune)
-Synonymie taxonomique
-Tillandsia hilaireana Baker (?)[2]
-Tillandsia latisepala L.B.Sm. [3],[2]
-Tillandsia meridionalis sensu Mez 1896[4] non Baker [3],[2]
-Tillandsia windhausenii Hassler[3],[2]
-Anoplophytum refulgens E.Morren [2]</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
         </is>
       </c>
     </row>
@@ -580,48 +593,58 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia hilaireana Baker (?)
+Tillandsia latisepala L.B.Sm. ,
+Tillandsia meridionalis sensu Mez 1896 non Baker ,
+Tillandsia windhausenii Hassler,
+Anoplophytum refulgens E.Morren </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tillandsia_pohliana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_pohliana</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante en rosette, acaule ou quasiment.
 Feuilles écailleuses argentées.
 Inflorescence dégagée de la rosette, en épi hélicoïdal unique, à grandes bractées rosâtres et fleurs blanches à pétales étalés.
-Floraison in situ : mars et octobre-novembre[1].
+Floraison in situ : mars et octobre-novembre.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tillandsia_pohliana</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tillandsia_pohliana</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante herbacée, monocarpique vivace par ses rejets latéraux ; saxicole[2] ou épiphyte[1],[2].
-Habitat : buissons et bois secs[2].
-Altitude : 750-1500 m[2] ; 1500 m[3].</t>
         </is>
       </c>
     </row>
@@ -646,20 +669,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique du sud :
- Argentine[3]
-nord de l'Argentine[2]
- Bolivie[2]
- Brésil[3]
-Centre et est du Brésil[2]
- Paraguay[3],[2].
- Pérou
-Sud du Pérou[3],[2].</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée, monocarpique vivace par ses rejets latéraux ; saxicole ou épiphyte,.
+Habitat : buissons et bois secs.
+Altitude : 750-1500 m ; 1500 m.</t>
         </is>
       </c>
     </row>
@@ -684,12 +703,54 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique du sud :
+ Argentine
+nord de l'Argentine
+ Bolivie
+ Brésil
+Centre et est du Brésil
+ Paraguay,.
+ Pérou
+Sud du Pérou,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_pohliana</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_pohliana</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia pohliana est de culture aisée en situation ensoleillée[3],[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia pohliana est de culture aisée en situation ensoleillée,.
 Culture sans substrat, comme pour toutes les Tillandsia « aériennes ».
 </t>
         </is>
